--- a/03.퍼블리싱/한사대-CDP(2023).xlsx
+++ b/03.퍼블리싱/한사대-CDP(2023).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\sangs\한양사이버대학교\hycu-2023-\03.퍼블리싱\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\sangs\한양사이버대학교\-2023-hycu\03.퍼블리싱\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
   <si>
     <t>URL</t>
   </si>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>멘토링 &gt; 학업 멘토링 &gt; 멘토링 운영관리 &gt; 멘티 매칭 - 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>멘토링 &gt; 학업 멘토링 &gt; 참여한 멘토링 관리 &gt; 맨토링 신청현황 – 상세</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,22 +163,6 @@
   </si>
   <si>
     <t>멘토링 &gt; 학업 멘토링 &gt; 자유게시판 - 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토링 &gt; 직업 멘토링 &gt; 직업 멘토링 소개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토링 &gt; 직업 멘토링 &gt; 멘토링 참여신청 – 목록(캘린더형)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토링 &gt; 직업 멘토링 &gt; 멘토링 참여신청 – 목록(리스트형)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토링 &gt; 직업 멘토링 &gt; 멘토링 참여신청 – 상세</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -234,18 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>알림팝업 3개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토링 &gt; 직업 멘토링 &gt; 멘토링 개설신청 &gt; 개설신청 현황 - 상세</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토링 &gt; 직업 멘토링 &gt; 직업 멘토 자격신청 &gt; 개설신청 현황 - 상세</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>멘토링 &gt; 직업 멘토링 &gt; 멘토링 운영관리 &gt; 멘티 매칭 - 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,10 +222,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신청 상세정보팝업, 매칭 최소, 사유 확인 팝업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>멘토링 &gt; 직업 멘토링 &gt; 멘토링 운영관리 &gt; 만족도 평가 – 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,10 +238,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>참여한 멘티 팝업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>멘토링 &gt; 직업 멘토링 &gt; 멘토링 운영관리 &gt; 멘토 활동 결과 – 결과 보고서 제출하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -287,10 +247,6 @@
   </si>
   <si>
     <t>멘토링 &gt; 직업 멘토링 &gt; 참여한 멘토링 관리 &gt; 맨토링 신청현황 - 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매칭완료팝업, 매칭실패팝업, 미완료팝업,매칭취소팝업, 하차사유확인팝업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -403,10 +359,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신청상세정보 팝업, 매칭 취소 팝업, 사유확인 팝업(20231123추가)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>만족도평가 제출완료 팝업, 수정완료팝업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -423,23 +375,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>미완료 팝업, 하차 사유확인 팝업, 매칭완료 팝업(디자인 동일은 제외)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링 &gt; 학업 멘토링 &gt; 멘토링 운영관리 &gt; 만족도 평가 – 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"멘토링 운영관리 &gt; 만족도 평가 – 목록"로 활용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 "공개 및 대표 선택" -&gt; "학업 멘토링이란?" 수정(20231127)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링 &gt; 직업 멘토링 &gt; 멘토링 참여신청 – 목록(캘린더형/리스트형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크박스 수정(20231127)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청상세정보 팝업, 매칭 취소 팝업, 사유확인 팝업(20231123추가)/ 팝업 스크롤 추가(20231127)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>직업 멘토링</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미완료 팝업, 하차 사유확인 팝업, 매칭완료 팝업(디자인 동일은 제외)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토링 &gt; 학업 멘토링 &gt; 멘토링 운영관리 &gt; 만족도 평가 – 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"멘토링 운영관리 &gt; 만족도 평가 – 목록"로 활용가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
+    <t>멘토링 &gt; 직업 멘토링 &gt; 멘토링 참여신청 – 상세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링 &gt; 직업 멘토링 &gt; 직업 멘토링 소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개설신청으로 활용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링 &gt; 직업 멘토링 &gt; 직업 멘토 자격신청 &gt; 개설신청 현황 - 상세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링 &gt; 학업 멘토링 &gt; 멘토링 운영관리 &gt; 멘티 매칭 - 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세(제출하기)로 활용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여한 멘티 팝업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학업멘토링과 동일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제출하기로 활용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭완료팝업, 매칭실패팝업, 미완료팝업,매칭취소팝업, 하차사유확인팝업 / 학업멘토링과 동일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학업멘토링과 동일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족도 평가 – 상세(확인하기)로 활용가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1002,9 +1018,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1020,7 +1038,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="21" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>4</v>
@@ -1053,28 +1071,30 @@
         <v>html/dashboard.html</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>HYPERLINK("html/mentoring.html")</f>
         <v>html/mentoring.html</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -1088,7 +1108,7 @@
     </row>
     <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1102,7 +1122,7 @@
     </row>
     <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -1111,7 +1131,9 @@
         <f>HYPERLINK("html/mentoringForm.html")</f>
         <v>html/mentoringForm.html</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -1122,13 +1144,13 @@
         <v>html/mentoringFormNo.html</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -1138,24 +1160,24 @@
         <v>html/mentoringOpen.html</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C10" s="14" t="str">
         <f>HYPERLINK("html/mentoringFormNo.html")</f>
         <v>html/mentoringFormNo.html</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -1165,13 +1187,13 @@
         <v>html/mentoringOpenList.html</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1181,15 +1203,15 @@
         <v>html/mentoringOpenView.html</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C13" s="14" t="str">
         <f>HYPERLINK("html/menteeList.html")</f>
@@ -1199,7 +1221,7 @@
     </row>
     <row r="14" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -1214,10 +1236,10 @@
     </row>
     <row r="15" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C15" s="14" t="str">
         <f>HYPERLINK("html/satisfactionList.html")</f>
@@ -1227,7 +1249,7 @@
     </row>
     <row r="16" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
@@ -1237,12 +1259,12 @@
         <v>html/satisfactionView.html</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -1252,12 +1274,12 @@
         <v>html/satisfactionView.html</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -1272,7 +1294,7 @@
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -1286,7 +1308,7 @@
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -1296,12 +1318,12 @@
         <v>html/activeResultForm.html</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -1311,75 +1333,75 @@
         <v>html/stateList.html</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="14" t="str">
         <f>HYPERLINK("html/stateView.html")</f>
         <v>html/stateView.html</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="14" t="str">
         <f>HYPERLINK("html/satisfactionList.html")</f>
         <v>html/satisfactionList.html</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="14" t="str">
         <f>HYPERLINK("html/satisfactionView.html")</f>
         <v>html/satisfactionView.html</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="14" t="str">
         <f>HYPERLINK("html/satisfactionView.html")</f>
         <v>html/satisfactionView.html</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="14" t="str">
         <f>HYPERLINK("html/involveList.html")</f>
@@ -1389,10 +1411,10 @@
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="14" t="str">
         <f>HYPERLINK("html/notice.html")</f>
@@ -1403,10 +1425,10 @@
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="14" t="str">
         <f>HYPERLINK("html/noticeView.html")</f>
@@ -1417,10 +1439,10 @@
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="14" t="str">
         <f>HYPERLINK("html/noticeFree.html")</f>
@@ -1430,10 +1452,10 @@
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="14" t="str">
         <f>HYPERLINK("html/noticeView.html")</f>
@@ -1443,10 +1465,10 @@
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="14" t="str">
         <f>HYPERLINK("html/noticeWrite.html")</f>
@@ -1457,10 +1479,10 @@
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="14" t="str">
         <f>HYPERLINK("html/noticeWriteCheck.html")</f>
@@ -1471,263 +1493,406 @@
     <row r="33" spans="1:5" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="B34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="14" t="str">
+        <f>HYPERLINK("html/job.html")</f>
+        <v>html/job.html</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="14" t="str">
+        <f>HYPERLINK("html/jobList.html")</f>
+        <v>html/jobList.html</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="14" t="str">
+        <f>HYPERLINK("html/jobView.html")</f>
+        <v>html/jobView.html</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="14" t="str">
+        <f>HYPERLINK("html/jobForm.html")</f>
+        <v>html/jobForm.html</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="14" t="str">
+        <f>HYPERLINK("html/jobOpen1.html")</f>
+        <v>html/jobOpen1.html</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="14" t="str">
+        <f>HYPERLINK("html/jobOpen2.html")</f>
+        <v>html/jobOpen2.html</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="14" t="str">
+        <f>HYPERLINK("html/mentoringOpenList.html")</f>
+        <v>html/mentoringOpenList.html</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="14" t="str">
+        <f>HYPERLINK("html/jobOpen1.html")</f>
+        <v>html/jobOpen1.html</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="14" t="str">
+        <f>HYPERLINK("html/menteeList.html")</f>
+        <v>html/menteeList.html</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="14" t="str">
+        <f>HYPERLINK("html/jobMenteeView.html")</f>
+        <v>html/jobMenteeView.html</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="14" t="str">
+        <f>HYPERLINK("html/satisfactionList.html")</f>
+        <v>html/satisfactionList.html</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="14" t="str">
+        <f>HYPERLINK("html/jobSatisfactionView.html")</f>
+        <v>html/jobSatisfactionView.html</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="14" t="str">
+        <f>HYPERLINK("html/jobSatisfactionView.html")</f>
+        <v>html/jobSatisfactionView.html</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="14" t="str">
+        <f>HYPERLINK("html/activeResultList.html")</f>
+        <v>html/activeResultList.html</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="14" t="str">
+        <f>HYPERLINK("html/jobActiveResultForm.html")</f>
+        <v>html/jobActiveResultForm.html</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="14" t="str">
+        <f>HYPERLINK("html/jobActiveResultForm.html")</f>
+        <v>html/jobActiveResultForm.html</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="14" t="str">
+        <f>HYPERLINK("html/stateList.html")</f>
+        <v>html/stateList.html</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="14" t="str">
+        <f>HYPERLINK("html/jobStateView.html")</f>
+        <v>html/jobStateView.html</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="2" t="s">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
+      <c r="C52" s="14" t="str">
+        <f>HYPERLINK("html/satisfactionList.html")</f>
+        <v>html/satisfactionList.html</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
+      <c r="C53" s="14" t="str">
+        <f>HYPERLINK("html/jobSatisfactionView.html")</f>
+        <v>html/jobSatisfactionView.html</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
+      <c r="C54" s="14" t="str">
+        <f>HYPERLINK("html/jobSatisfactionView.html")</f>
+        <v>html/jobSatisfactionView.html</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
+      <c r="C55" s="14" t="str">
+        <f>HYPERLINK("html/jobInvolveList.html")</f>
+        <v>html/jobInvolveList.html</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="14" t="str">
+      <c r="C56" s="14" t="str">
         <f>HYPERLINK("html/notice.html")</f>
         <v>html/notice.html</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="14" t="str">
+      <c r="D56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="14" t="str">
         <f>HYPERLINK("html/notice_view.html")</f>
         <v>html/notice_view.html</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="15"/>
       <c r="D59" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
       <c r="C62" s="15"/>
-      <c r="D62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="15"/>
       <c r="D64" s="2"/>
@@ -1736,7 +1901,6 @@
       <c r="B65" s="2"/>
       <c r="C65" s="15"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
@@ -1747,23 +1911,23 @@
       <c r="B67" s="2"/>
       <c r="C67" s="15"/>
       <c r="D67" s="2"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="15"/>
       <c r="D68" s="2"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="15"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
     </row>
     <row r="70" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="15"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
@@ -1777,7 +1941,7 @@
     </row>
     <row r="73" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
-      <c r="C73" s="15"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1787,7 +1951,7 @@
     </row>
     <row r="75" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
-      <c r="C75" s="16"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1809,17 +1973,19 @@
       <c r="B79" s="2"/>
       <c r="C79" s="15"/>
       <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="C80" s="15"/>
       <c r="D80" s="2"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
       <c r="C81" s="15"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
@@ -1831,13 +1997,11 @@
       <c r="B83" s="2"/>
       <c r="C83" s="15"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="3"/>
     </row>
     <row r="84" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
       <c r="C84" s="15"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="3"/>
     </row>
     <row r="85" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
@@ -1868,6 +2032,7 @@
       <c r="B90" s="2"/>
       <c r="C90" s="15"/>
       <c r="D90" s="2"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
@@ -1878,7 +2043,7 @@
       <c r="B92" s="2"/>
       <c r="C92" s="15"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="3"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
@@ -1889,7 +2054,6 @@
       <c r="B94" s="2"/>
       <c r="C94" s="15"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
@@ -1901,121 +2065,111 @@
       <c r="C96" s="15"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
       <c r="C97" s="15"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="15"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="15"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="15"/>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="15"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
       <c r="C102" s="15"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
       <c r="C103" s="15"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="C104" s="15"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="15"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="15"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
       <c r="C107" s="15"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="15"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="15"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="15"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="15"/>
       <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="15"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="15"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="15"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
       <c r="C115" s="15"/>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="16"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="2"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="2"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="6"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/03.퍼블리싱/한사대-CDP(2023).xlsx
+++ b/03.퍼블리싱/한사대-CDP(2023).xlsx
@@ -322,18 +322,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>대시보드 수정작업예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인 작업중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토링 참여신청이랑 동일 / 디자인작업중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">멘토링 재신청 알림팝업추가(20231123) / 
 </t>
@@ -456,6 +444,18 @@
   </si>
   <si>
     <t>만족도 평가 – 상세(확인하기)로 활용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 컨펌중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링 참여신청이랑 동일 / 디자인 컨펌중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드 디자인컨펌중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1071,7 +1071,7 @@
         <v>html/dashboard.html</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1087,7 +1087,7 @@
         <v>html/mentoring.html</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="3"/>
@@ -1132,7 +1132,7 @@
         <v>html/mentoringForm.html</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1144,7 +1144,7 @@
         <v>html/mentoringFormNo.html</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1160,7 +1160,7 @@
         <v>html/mentoringOpen.html</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1172,7 +1172,7 @@
         <v>html/mentoringFormNo.html</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1187,7 +1187,7 @@
         <v>html/mentoringOpenList.html</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1203,7 +1203,7 @@
         <v>html/mentoringOpenView.html</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="str">
         <f>HYPERLINK("html/menteeList.html")</f>
@@ -1231,7 +1231,7 @@
         <v>html/menteeView.html</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1239,7 +1239,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="14" t="str">
         <f>HYPERLINK("html/satisfactionList.html")</f>
@@ -1259,7 +1259,7 @@
         <v>html/satisfactionView.html</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1274,7 +1274,7 @@
         <v>html/satisfactionView.html</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1318,7 +1318,7 @@
         <v>html/activeResultForm.html</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1333,7 +1333,7 @@
         <v>html/stateList.html</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>html/satisfactionList.html</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>html/satisfactionView.html</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1393,7 +1393,7 @@
         <v>html/satisfactionView.html</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
     <row r="33" spans="1:5" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
@@ -1503,7 +1503,7 @@
         <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C34" s="14" t="str">
         <f>HYPERLINK("html/job.html")</f>
@@ -1516,7 +1516,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C35" s="14" t="str">
         <f>HYPERLINK("html/jobList.html")</f>
@@ -1529,7 +1529,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C36" s="14" t="str">
         <f>HYPERLINK("html/jobView.html")</f>
@@ -1590,7 +1590,7 @@
         <v>html/mentoringOpenList.html</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1598,14 +1598,14 @@
         <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C41" s="14" t="str">
         <f>HYPERLINK("html/jobOpen1.html")</f>
         <v>html/jobOpen1.html</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1620,7 +1620,7 @@
         <v>html/menteeList.html</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1635,7 +1635,7 @@
         <v>html/jobMenteeView.html</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1650,7 +1650,7 @@
         <v>html/satisfactionList.html</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>html/jobSatisfactionView.html</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E46" s="7"/>
     </row>
@@ -1694,7 +1694,7 @@
         <v>html/activeResultList.html</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1723,7 +1723,7 @@
         <v>html/jobActiveResultForm.html</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1738,7 +1738,7 @@
         <v>html/stateList.html</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1769,7 +1769,7 @@
         <v>html/satisfactionList.html</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2"/>
     </row>
@@ -1785,7 +1785,7 @@
         <v>html/jobSatisfactionView.html</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2"/>
     </row>
@@ -1821,12 +1821,9 @@
       <c r="B56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="14" t="str">
-        <f>HYPERLINK("html/notice.html")</f>
-        <v>html/notice.html</v>
-      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -1834,12 +1831,9 @@
       <c r="B57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="14" t="str">
-        <f>HYPERLINK("html/notice_view.html")</f>
-        <v>html/notice_view.html</v>
-      </c>
+      <c r="C57" s="14"/>
       <c r="D57" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1848,7 +1842,7 @@
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1857,7 +1851,7 @@
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E59" s="10"/>
     </row>
@@ -1867,7 +1861,7 @@
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -1877,7 +1871,7 @@
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E61" s="9"/>
     </row>

--- a/03.퍼블리싱/한사대-CDP(2023).xlsx
+++ b/03.퍼블리싱/한사대-CDP(2023).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>URL</t>
   </si>
@@ -447,15 +447,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>디자인 컨펌중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토링 참여신청이랑 동일 / 디자인 컨펌중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대시보드 디자인컨펌중</t>
+    <t>작업완료(20231204)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -605,13 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,26 +707,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,23 +1047,26 @@
     </row>
     <row r="2" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="str">
-        <f>HYPERLINK("html/dashboard.html")</f>
-        <v>html/dashboard.html</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>92</v>
+        <f>HYPERLINK("html/dashboard02.html")</f>
+        <v>html/dashboard02.html</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1136,6 +1131,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1141,7 @@
         <f>HYPERLINK("html/mentoringFormNo.html")</f>
         <v>html/mentoringFormNo.html</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="28" t="s">
         <v>90</v>
       </c>
       <c r="E8" s="3"/>
@@ -1164,6 +1162,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
@@ -1171,8 +1172,8 @@
         <f>HYPERLINK("html/mentoringFormNo.html")</f>
         <v>html/mentoringFormNo.html</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>91</v>
+      <c r="D10" s="28" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1490,13 +1491,13 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:5" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24" t="s">
+    <row r="33" spans="1:5" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
